--- a/biology/Biochimie/Photosystème_II/Photosystème_II.xlsx
+++ b/biology/Biochimie/Photosystème_II/Photosystème_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photosyst%C3%A8me_II</t>
+          <t>Photosystème_II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le photosystème II (PSII) est une oxydoréductase qui catalyse la réaction :
 2 H2O + 2 plastoquinone + 4 hν  
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Photosyst%C3%A8me_II</t>
+          <t>Photosystème_II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,10 +529,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le noyau du photosystème II consiste en un hétérodimère pseudo-symétrique de deux protéines homologues, D1 et D2[2]. Contrairement à tous les centres réactionnels de tous les autres photosystèmes qui ont une paire de molécules de chlorophylle étroitement associées, le pigment qui subit la séparation de charge photoinduite initiale dans le photosystème II est un monomère de chlorophylle. La charge positive n'étant pas partagée entre deux molécules, le pigment ionisé est très oxydant et intervient dans la dissociation de l'eau.
-Le photosystème II des plantes vertes et des cyanobactéries est constitué d'une vingtaine de sous-unités, le nombre exact dépendant des espèces, ainsi que de diverses protéines de collecte lumineuse. Chaque photosystème II contient au moins 99 cofacteurs[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le noyau du photosystème II consiste en un hétérodimère pseudo-symétrique de deux protéines homologues, D1 et D2. Contrairement à tous les centres réactionnels de tous les autres photosystèmes qui ont une paire de molécules de chlorophylle étroitement associées, le pigment qui subit la séparation de charge photoinduite initiale dans le photosystème II est un monomère de chlorophylle. La charge positive n'étant pas partagée entre deux molécules, le pigment ionisé est très oxydant et intervient dans la dissociation de l'eau.
+Le photosystème II des plantes vertes et des cyanobactéries est constitué d'une vingtaine de sous-unités, le nombre exact dépendant des espèces, ainsi que de diverses protéines de collecte lumineuse. Chaque photosystème II contient au moins 99 cofacteurs :
 35 chlorophylle a ;
 12 β-carotène ;
 2 phéophytine ;
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Photosyst%C3%A8me_II</t>
+          <t>Photosystème_II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,11 +574,13 @@
           <t>Complexe d'oxydation de l'eau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe d'oxydation de l'eau, souvent appelé oxygen-evolving complex de son nom anglais, est un cluster oxométallique de quatre cations de manganèse dont le nombre d'oxydation va de +3 à +5 et un cation de calcium bivalent Ca2+. Au cours de l'oxydation de l'eau, les quatre électrons de l'eau circulent l'un après l'autre d'abord sur la chaîne latérale de la tyrosine D1-Y161 puis directement sur la chlorophylle P680.
-La structure exacte de ce cluster demeure encore discutée, notamment les structures obtenues par cristallographie aux rayons X car il apparaît que les atomes de manganèse sont réduits par les rayons X intenses utilisés pour l'observation, ce qui altère la structure du complexe. Cependant, cette méthode, combinée avec d'autres techniques moins destructrices telles que la spectroscopie EXAFS et la résonance paramagnétique électronique, donne une idée assez claire de la structure de ce cluster. Une possibilité est une structure de type cubane[4].
-Sa structure a été résolue en 2011 avec une résolution de 1,9 Å, ce qui a révélé la présence de cinq atomes d'oxygène servant de ponts oxo entre les cinq atomes métalliques et quatre molécules d'eau liées au cluster Mn4CaO5. Plus de 1 300 molécules d'eau ont été trouvées dans chaque photosystème II, certaines formant de grands réseaux par liaison hydrogène qui pourraient servir de canaux à protons H+, à molécules d'eau H2O ou à oxygène O2[5].
+La structure exacte de ce cluster demeure encore discutée, notamment les structures obtenues par cristallographie aux rayons X car il apparaît que les atomes de manganèse sont réduits par les rayons X intenses utilisés pour l'observation, ce qui altère la structure du complexe. Cependant, cette méthode, combinée avec d'autres techniques moins destructrices telles que la spectroscopie EXAFS et la résonance paramagnétique électronique, donne une idée assez claire de la structure de ce cluster. Une possibilité est une structure de type cubane.
+Sa structure a été résolue en 2011 avec une résolution de 1,9 Å, ce qui a révélé la présence de cinq atomes d'oxygène servant de ponts oxo entre les cinq atomes métalliques et quatre molécules d'eau liées au cluster Mn4CaO5. Plus de 1 300 molécules d'eau ont été trouvées dans chaque photosystème II, certaines formant de grands réseaux par liaison hydrogène qui pourraient servir de canaux à protons H+, à molécules d'eau H2O ou à oxygène O2.
 </t>
         </is>
       </c>
